--- a/roles empresa.xlsx
+++ b/roles empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\seminario_vue-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8BBC129-FE79-44E0-A1E3-BEFC25027F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853BAEB6-B871-4EEC-BABF-9F029BD36DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B1053F7-DD3C-4B6B-8C42-D85CF1D41529}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5B1053F7-DD3C-4B6B-8C42-D85CF1D41529}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A8F78-AD92-4451-AA97-E16BA3C6C1EF}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/roles empresa.xlsx
+++ b/roles empresa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\seminario_vue-laravel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\seminario\vue-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853BAEB6-B871-4EEC-BABF-9F029BD36DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75810804-E350-480C-8667-1C09D53E57AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5B1053F7-DD3C-4B6B-8C42-D85CF1D41529}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B1053F7-DD3C-4B6B-8C42-D85CF1D41529}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,11 +253,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,11 +575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A8F78-AD92-4451-AA97-E16BA3C6C1EF}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
@@ -598,13 +605,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -615,13 +622,13 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -638,13 +645,13 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -661,13 +668,13 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -681,13 +688,13 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -698,13 +705,13 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>56</v>
       </c>
     </row>

--- a/roles empresa.xlsx
+++ b/roles empresa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\seminario\vue-laravel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\seminario_vue-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75810804-E350-480C-8667-1C09D53E57AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A0E0C-6F6A-45CA-B45C-A29869A6AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B1053F7-DD3C-4B6B-8C42-D85CF1D41529}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B1053F7-DD3C-4B6B-8C42-D85CF1D41529}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,10 +576,10 @@
   <dimension ref="A2:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
@@ -836,6 +836,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
